--- a/dados_dos_alunos.xlsx
+++ b/dados_dos_alunos.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viinh\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47650F20-734B-4BAD-82CD-6BCFC2C8BD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Página1"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -943,9 +949,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,12 +998,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFf9f9f9"/>
+        <fgColor rgb="FFF9F9F9"/>
       </patternFill>
     </fill>
   </fills>
@@ -1019,16 +1024,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,71 +1041,95 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1111,10 +1140,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -1152,71 +1181,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1244,7 +1273,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1267,11 +1296,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1280,13 +1309,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1296,7 +1325,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1305,7 +1334,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1314,7 +1343,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1322,10 +1351,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1390,42 +1419,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="17" width="48.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="33.77734375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="42.21875" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="30">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:9" ht="30" customHeight="1">
+      <c r="A1" s="21"/>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1434,3801 +1465,3659 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="114">
-      <c r="A2" s="1" t="s">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="114" customHeight="1">
+      <c r="A2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="14">
         <v>3031033370</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="14">
         <v>21111203</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="17">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="114">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="114" customHeight="1">
+      <c r="A3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="14">
         <v>26482863906</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="14">
         <v>21111234</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="18">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="114">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="114" customHeight="1">
+      <c r="A4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="14">
         <v>74488292704</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="14">
         <v>21111479</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="19">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="114">
-      <c r="A5" s="1" t="s">
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="114" customHeight="1">
+      <c r="A5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="14">
         <v>5880624811</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="14">
         <v>21111516</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="18">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="90">
-      <c r="A6" s="1" t="s">
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="90" customHeight="1">
+      <c r="A6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="14">
         <v>17086208000</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="14">
         <v>21111917</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="19">
         <v>2</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="114">
-      <c r="A7" s="1" t="s">
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="114" customHeight="1">
+      <c r="A7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="14">
         <v>52296920578</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="14">
         <v>21112036</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="18">
         <v>2</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="90">
-      <c r="A8" s="1" t="s">
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="90" customHeight="1">
+      <c r="A8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="14">
         <v>77794285836</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="14">
         <v>21112308</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="19">
         <v>2</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="90">
-      <c r="A9" s="1" t="s">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="90" customHeight="1">
+      <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="14">
         <v>38709510281</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="14">
         <v>21113008</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="18">
         <v>2</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="114">
-      <c r="A10" s="1" t="s">
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="114" customHeight="1">
+      <c r="A10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="14">
         <v>25036813871</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="14">
         <v>21113454</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="19">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="90">
-      <c r="A11" s="1" t="s">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="90" customHeight="1">
+      <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="14">
         <v>22746662701</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="14">
         <v>21113493</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="18">
         <v>2</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="114">
-      <c r="A12" s="1" t="s">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="114" customHeight="1">
+      <c r="A12" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="14">
         <v>78607753959</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="14">
         <v>21113621</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="19">
         <v>2</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="90">
-      <c r="A13" s="1" t="s">
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" ht="90" customHeight="1">
+      <c r="A13" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="14">
         <v>5415614052</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="14">
         <v>21113671</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="18">
         <v>2</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="90">
-      <c r="A14" s="1" t="s">
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="90" customHeight="1">
+      <c r="A14" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="14">
         <v>95204642633</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="14">
         <v>21113691</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="19">
         <v>2</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="114">
-      <c r="A15" s="1" t="s">
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="114" customHeight="1">
+      <c r="A15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="14">
         <v>21682796752</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="14">
         <v>21113817</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="18">
         <v>2</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="114">
-      <c r="A16" s="1" t="s">
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="114" customHeight="1">
+      <c r="A16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="14">
         <v>26138812085</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="14">
         <v>21113912</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="19">
         <v>2</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="114">
-      <c r="A17" s="1" t="s">
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="114" customHeight="1">
+      <c r="A17" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="14">
         <v>10396248209</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="14">
         <v>21113921</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="18">
         <v>2</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="90">
-      <c r="A18" s="1" t="s">
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="90" customHeight="1">
+      <c r="A18" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="14">
         <v>53928530216</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="14">
         <v>21114074</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="19">
         <v>2</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="90">
-      <c r="A19" s="11" t="s">
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="90" customHeight="1">
+      <c r="A19" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="14">
         <v>21114092</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="18">
         <v>2</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="90">
-      <c r="A20" s="1" t="s">
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="90" customHeight="1">
+      <c r="A20" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="14">
         <v>21114153</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="19">
         <v>2</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="E20" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="114">
-      <c r="A21" s="1" t="s">
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" ht="114" customHeight="1">
+      <c r="A21" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="14">
         <v>21114305</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="18">
         <v>2</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="5">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="114">
-      <c r="A22" s="1" t="s">
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="114" customHeight="1">
+      <c r="A22" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="14">
         <v>21114761</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="19">
         <v>2</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="5">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="114">
-      <c r="A23" s="1" t="s">
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" ht="114" customHeight="1">
+      <c r="A23" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="14">
         <v>21115146</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="18">
         <v>2</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="5">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="114">
-      <c r="A24" s="1" t="s">
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="114" customHeight="1">
+      <c r="A24" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="14">
         <v>21115301</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="19">
         <v>2</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="5">
-        <v>0</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="1" t="s">
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="126" customHeight="1">
+      <c r="A25" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="14">
         <v>21115449</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="18">
         <v>2</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="E25" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="5">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="1" t="s">
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="132.6" customHeight="1">
+      <c r="A26" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="14">
         <v>21115680</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="19">
         <v>2</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="E26" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="5">
-        <v>0</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1" t="s">
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="102.6" customHeight="1">
+      <c r="A27" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="14">
         <v>21115731</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="18">
         <v>2</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="7" t="s">
+      <c r="E27" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="5">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="1" t="s">
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="129" customHeight="1">
+      <c r="A28" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="14">
         <v>21115821</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="19">
         <v>2</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="E28" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="5">
-        <v>0</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="1" t="s">
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="128.4" customHeight="1">
+      <c r="A29" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="14">
         <v>21116215</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="18">
         <v>2</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="E29" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="5">
-        <v>0</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="1" t="s">
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" ht="102.6" customHeight="1">
+      <c r="A30" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="14">
         <v>21116708</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="19">
         <v>2</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="E30" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="5">
-        <v>0</v>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="1" t="s">
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="102.6" customHeight="1">
+      <c r="A31" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="14">
         <v>21117122</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="18">
         <v>2</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="E31" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="5">
-        <v>0</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="1" t="s">
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" ht="100.2" customHeight="1">
+      <c r="A32" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="14">
         <v>21117175</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="19">
         <v>2</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="E32" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="5">
-        <v>0</v>
-      </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="1" t="s">
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" ht="127.8" customHeight="1">
+      <c r="A33" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="14">
         <v>21117369</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="18">
         <v>2</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="7" t="s">
+      <c r="E33" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="5">
-        <v>0</v>
-      </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="1" t="s">
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" ht="127.2" customHeight="1">
+      <c r="A34" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="14">
         <v>21117592</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="19">
         <v>2</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="7" t="s">
+      <c r="E34" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="5">
-        <v>0</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="1" t="s">
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" ht="116.4" customHeight="1">
+      <c r="A35" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="14">
         <v>21117885</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="20">
         <v>2</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="7" t="s">
+      <c r="E35" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G35" s="5">
-        <v>0</v>
-      </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="1" t="s">
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A36" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="14">
         <v>21118037</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="19">
         <v>2</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="7" t="s">
+      <c r="E36" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="5">
-        <v>0</v>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="1" t="s">
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A37" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="14">
         <v>20219818</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="17">
         <v>3</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="7" t="s">
+      <c r="E37" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G37" s="5">
-        <v>0</v>
-      </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="1" t="s">
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A38" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="14">
         <v>20219888</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="18">
         <v>3</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="7" t="s">
+      <c r="E38" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="5">
-        <v>0</v>
-      </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="1" t="s">
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A39" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="14">
         <v>20216936</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="19">
         <v>3</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="7" t="s">
+      <c r="E39" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G39" s="5">
-        <v>0</v>
-      </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="1" t="s">
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A40" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="14">
         <v>20215003</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="18">
         <v>3</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="7" t="s">
+      <c r="E40" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G40" s="5">
-        <v>0</v>
-      </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="1" t="s">
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A41" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="14">
         <v>20213682</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="19">
         <v>3</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="7" t="s">
+      <c r="E41" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G41" s="5">
-        <v>0</v>
-      </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="1" t="s">
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A42" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="14">
         <v>20214970</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="18">
         <v>3</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="7" t="s">
+      <c r="E42" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G42" s="5">
-        <v>0</v>
-      </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="1" t="s">
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A43" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="14">
         <v>20217312</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="19">
         <v>3</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="7" t="s">
+      <c r="E43" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G43" s="5">
-        <v>0</v>
-      </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="1" t="s">
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A44" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="14">
         <v>20218755</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="18">
         <v>3</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="7" t="s">
+      <c r="E44" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G44" s="5">
-        <v>0</v>
-      </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="1" t="s">
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A45" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="14">
         <v>20215146</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="19">
         <v>3</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="7" t="s">
+      <c r="E45" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G45" s="5">
-        <v>0</v>
-      </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="1" t="s">
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A46" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="14">
         <v>20216028</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="18">
         <v>3</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="7" t="s">
+      <c r="E46" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G46" s="5">
-        <v>0</v>
-      </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="1" t="s">
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A47" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="14">
         <v>20213294</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="19">
         <v>3</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="7" t="s">
+      <c r="E47" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G47" s="5">
-        <v>0</v>
-      </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="1" t="s">
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A48" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="14">
         <v>20218438</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="18">
         <v>3</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="7" t="s">
+      <c r="E48" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G48" s="5">
-        <v>0</v>
-      </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="1" t="s">
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A49" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="14">
         <v>20217406</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="19">
         <v>3</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="7" t="s">
+      <c r="E49" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G49" s="5">
-        <v>0</v>
-      </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="1" t="s">
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A50" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="14">
         <v>20219976</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="18">
         <v>3</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="7" t="s">
+      <c r="E50" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G50" s="5">
-        <v>0</v>
-      </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="1" t="s">
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A51" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="14">
         <v>20219963</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="19">
         <v>3</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="7" t="s">
+      <c r="E51" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G51" s="5">
-        <v>0</v>
-      </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="1" t="s">
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A52" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="14">
         <v>20216321</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="18">
         <v>3</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="7" t="s">
+      <c r="E52" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G52" s="5">
-        <v>0</v>
-      </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="1" t="s">
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A53" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="14">
         <v>20217814</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="19">
         <v>3</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="7" t="s">
+      <c r="E53" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G53" s="5">
-        <v>0</v>
-      </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="1" t="s">
+      <c r="G53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A54" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="14">
         <v>20219227</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="18">
         <v>3</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="7" t="s">
+      <c r="E54" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="5">
-        <v>0</v>
-      </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="1" t="s">
+      <c r="G54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A55" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="14">
         <v>20214857</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="19">
         <v>3</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="7" t="s">
+      <c r="E55" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G55" s="5">
-        <v>0</v>
-      </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="1" t="s">
+      <c r="G55" s="4">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A56" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="14">
         <v>20211737</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="18">
         <v>3</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="7" t="s">
+      <c r="E56" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G56" s="5">
-        <v>0</v>
-      </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="1" t="s">
+      <c r="G56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A57" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="14">
         <v>24823069499</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="14">
         <v>20218466</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="19">
         <v>3</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="7" t="s">
+      <c r="E57" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G57" s="5">
-        <v>0</v>
-      </c>
-      <c r="H57" s="8"/>
-      <c r="I57" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="1" t="s">
+      <c r="G57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A58" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="14">
         <v>59347140406</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="14">
         <v>20219351</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="18">
         <v>3</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="7" t="s">
+      <c r="E58" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G58" s="5">
-        <v>0</v>
-      </c>
-      <c r="H58" s="8"/>
-      <c r="I58" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="1" t="s">
+      <c r="G58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A59" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="14">
         <v>20353639427</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="14">
         <v>20212542</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="19">
         <v>3</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="7" t="s">
+      <c r="E59" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G59" s="5">
-        <v>0</v>
-      </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="1" t="s">
+      <c r="G59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A60" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="14">
         <v>20213993</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="18">
         <v>3</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="7" t="s">
+      <c r="E60" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G60" s="5">
-        <v>0</v>
-      </c>
-      <c r="H60" s="8"/>
-      <c r="I60" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="1" t="s">
+      <c r="G60" s="4">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A61" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="14">
         <v>20216215</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="19">
         <v>3</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="7" t="s">
+      <c r="E61" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G61" s="5">
-        <v>0</v>
-      </c>
-      <c r="H61" s="8"/>
-      <c r="I61" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="1" t="s">
+      <c r="G61" s="4">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A62" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="14">
         <v>20218043</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="18">
         <v>3</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="7" t="s">
+      <c r="E62" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G62" s="5">
-        <v>0</v>
-      </c>
-      <c r="H62" s="8"/>
-      <c r="I62" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="1" t="s">
+      <c r="G62" s="4">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A63" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="14">
         <v>20213798</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="19">
         <v>3</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="7" t="s">
+      <c r="E63" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G63" s="5">
-        <v>0</v>
-      </c>
-      <c r="H63" s="8"/>
-      <c r="I63" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="1" t="s">
+      <c r="G63" s="4">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A64" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="14">
         <v>20219237</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="18">
         <v>3</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="7" t="s">
+      <c r="E64" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G64" s="5">
-        <v>0</v>
-      </c>
-      <c r="H64" s="8"/>
-      <c r="I64" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="1" t="s">
+      <c r="G64" s="4">
+        <v>0</v>
+      </c>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A65" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="14">
         <v>20216526</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="19">
         <v>3</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="7" t="s">
+      <c r="E65" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G65" s="5">
-        <v>0</v>
-      </c>
-      <c r="H65" s="8"/>
-      <c r="I65" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="1" t="s">
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A66" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="14">
         <v>20214078</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="18">
         <v>3</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="7" t="s">
+      <c r="E66" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G66" s="5">
-        <v>0</v>
-      </c>
-      <c r="H66" s="7"/>
-      <c r="I66" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="1" t="s">
+      <c r="G66" s="4">
+        <v>0</v>
+      </c>
+      <c r="H66" s="5"/>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A67" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="5">
-        <v>0</v>
-      </c>
-      <c r="H67" s="7"/>
-      <c r="I67" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="1" t="s">
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="17"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="4">
+        <v>0</v>
+      </c>
+      <c r="H67" s="5"/>
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A68" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="14">
         <v>20111036</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="19">
         <v>4</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="7" t="s">
+      <c r="E68" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G68" s="5">
-        <v>0</v>
-      </c>
-      <c r="H68" s="7"/>
-      <c r="I68" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="1" t="s">
+      <c r="G68" s="4">
+        <v>0</v>
+      </c>
+      <c r="H68" s="5"/>
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A69" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="14">
         <v>20111048</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="18">
         <v>4</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="7" t="s">
+      <c r="E69" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G69" s="5">
-        <v>0</v>
-      </c>
-      <c r="H69" s="7"/>
-      <c r="I69" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="1" t="s">
+      <c r="G69" s="4">
+        <v>0</v>
+      </c>
+      <c r="H69" s="5"/>
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A70" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="14">
         <v>20111289</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="19">
         <v>4</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="7" t="s">
+      <c r="E70" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G70" s="5">
-        <v>0</v>
-      </c>
-      <c r="H70" s="8"/>
-      <c r="I70" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="1" t="s">
+      <c r="G70" s="4">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A71" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="14">
         <v>20112036</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="18">
         <v>4</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="7" t="s">
+      <c r="E71" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G71" s="5">
-        <v>0</v>
-      </c>
-      <c r="H71" s="8"/>
-      <c r="I71" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="1" t="s">
+      <c r="G71" s="4">
+        <v>0</v>
+      </c>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A72" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="14">
         <v>20112379</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="19">
         <v>4</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="7" t="s">
+      <c r="E72" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G72" s="5">
-        <v>0</v>
-      </c>
-      <c r="H72" s="8"/>
-      <c r="I72" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="1" t="s">
+      <c r="G72" s="4">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A73" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="14">
         <v>20112455</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="18">
         <v>4</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="7" t="s">
+      <c r="E73" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G73" s="5">
-        <v>0</v>
-      </c>
-      <c r="H73" s="8"/>
-      <c r="I73" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="1" t="s">
+      <c r="G73" s="4">
+        <v>0</v>
+      </c>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A74" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="14">
         <v>20112461</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="19">
         <v>4</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="7" t="s">
+      <c r="E74" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G74" s="5">
-        <v>0</v>
-      </c>
-      <c r="H74" s="8"/>
-      <c r="I74" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="135.75">
-      <c r="A75" s="1" t="s">
+      <c r="G74" s="4">
+        <v>0</v>
+      </c>
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="1:9" ht="135.75" customHeight="1">
+      <c r="A75" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="14">
         <v>20112657</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="18">
         <v>4</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="7" t="s">
+      <c r="E75" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G75" s="5">
-        <v>0</v>
-      </c>
-      <c r="H75" s="8"/>
-      <c r="I75" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="201">
-      <c r="A76" s="1" t="s">
+      <c r="G75" s="4">
+        <v>0</v>
+      </c>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="1:9" ht="201" customHeight="1">
+      <c r="A76" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="14">
         <v>20112716</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="19">
         <v>4</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="7" t="s">
+      <c r="E76" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G76" s="5">
-        <v>0</v>
-      </c>
-      <c r="H76" s="8"/>
-      <c r="I76" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="201">
-      <c r="A77" s="1" t="s">
+      <c r="G76" s="4">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="1:9" ht="201" customHeight="1">
+      <c r="A77" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="14">
         <v>20112865</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="18">
         <v>4</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="7" t="s">
+      <c r="E77" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G77" s="5">
-        <v>0</v>
-      </c>
-      <c r="H77" s="8"/>
-      <c r="I77" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="174.75">
-      <c r="A78" s="1" t="s">
+      <c r="G77" s="4">
+        <v>0</v>
+      </c>
+      <c r="I77" s="3"/>
+    </row>
+    <row r="78" spans="1:9" ht="174.75" customHeight="1">
+      <c r="A78" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="14">
         <v>20113803</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78" s="19">
         <v>4</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" s="7" t="s">
+      <c r="E78" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G78" s="5">
-        <v>0</v>
-      </c>
-      <c r="H78" s="8"/>
-      <c r="I78" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="201">
-      <c r="A79" s="1" t="s">
+      <c r="G78" s="4">
+        <v>0</v>
+      </c>
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="1:9" ht="201" customHeight="1">
+      <c r="A79" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="14">
         <v>20114153</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="18">
         <v>4</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="7" t="s">
+      <c r="E79" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G79" s="5">
-        <v>0</v>
-      </c>
-      <c r="H79" s="8"/>
-      <c r="I79" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="201">
-      <c r="A80" s="1" t="s">
+      <c r="G79" s="4">
+        <v>0</v>
+      </c>
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="1:9" ht="201" customHeight="1">
+      <c r="A80" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="14">
         <v>20114208</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D80" s="19">
         <v>4</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="7" t="s">
+      <c r="E80" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G80" s="5">
-        <v>0</v>
-      </c>
-      <c r="H80" s="8"/>
-      <c r="I80" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="227.25">
-      <c r="A81" s="1" t="s">
+      <c r="G80" s="4">
+        <v>0</v>
+      </c>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="1:9" ht="227.25" customHeight="1">
+      <c r="A81" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="14">
         <v>20114540</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="18">
         <v>4</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="7" t="s">
+      <c r="E81" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G81" s="5">
-        <v>0</v>
-      </c>
-      <c r="H81" s="8"/>
-      <c r="I81" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="149.25">
-      <c r="A82" s="1" t="s">
+      <c r="G81" s="4">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="1:9" ht="149.25" customHeight="1">
+      <c r="A82" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="14">
         <v>20114570</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D82" s="19">
         <v>4</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="7" t="s">
+      <c r="E82" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="G82" s="5">
-        <v>0</v>
-      </c>
-      <c r="H82" s="8"/>
-      <c r="I82" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="149.25">
-      <c r="A83" s="1" t="s">
+      <c r="G82" s="4">
+        <v>0</v>
+      </c>
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="1:9" ht="149.25" customHeight="1">
+      <c r="A83" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="14">
         <v>20114810</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D83" s="18">
         <v>4</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="7" t="s">
+      <c r="E83" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G83" s="5">
-        <v>0</v>
-      </c>
-      <c r="H83" s="8"/>
-      <c r="I83" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="201">
-      <c r="A84" s="1" t="s">
+      <c r="G83" s="4">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="1:9" ht="201" customHeight="1">
+      <c r="A84" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="14">
         <v>20115033</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D84" s="19">
         <v>4</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="7" t="s">
+      <c r="E84" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G84" s="5">
-        <v>0</v>
-      </c>
-      <c r="H84" s="8"/>
-      <c r="I84" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="149.25">
-      <c r="A85" s="1" t="s">
+      <c r="G84" s="4">
+        <v>0</v>
+      </c>
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="1:9" ht="149.25" customHeight="1">
+      <c r="A85" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="14">
         <v>20115278</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D85" s="18">
         <v>4</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="7" t="s">
+      <c r="E85" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G85" s="5">
-        <v>0</v>
-      </c>
-      <c r="H85" s="8"/>
-      <c r="I85" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="201">
-      <c r="A86" s="1" t="s">
+      <c r="G85" s="4">
+        <v>0</v>
+      </c>
+      <c r="I85" s="3"/>
+    </row>
+    <row r="86" spans="1:9" ht="201" customHeight="1">
+      <c r="A86" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="14">
         <v>20115483</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D86" s="19">
         <v>4</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="7" t="s">
+      <c r="E86" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G86" s="5">
-        <v>0</v>
-      </c>
-      <c r="H86" s="8"/>
-      <c r="I86" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="227.25">
-      <c r="A87" s="1" t="s">
+      <c r="G86" s="4">
+        <v>0</v>
+      </c>
+      <c r="I86" s="3"/>
+    </row>
+    <row r="87" spans="1:9" ht="227.25" customHeight="1">
+      <c r="A87" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="14">
         <v>20116998</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D87" s="18">
         <v>4</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" s="7" t="s">
+      <c r="E87" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G87" s="5">
-        <v>0</v>
-      </c>
-      <c r="H87" s="8"/>
-      <c r="I87" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="227.25">
-      <c r="A88" s="1" t="s">
+      <c r="G87" s="4">
+        <v>0</v>
+      </c>
+      <c r="I87" s="3"/>
+    </row>
+    <row r="88" spans="1:9" ht="227.25" customHeight="1">
+      <c r="A88" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="14">
         <v>20117319</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D88" s="19">
         <v>4</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F88" s="7" t="s">
+      <c r="E88" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G88" s="5">
-        <v>0</v>
-      </c>
-      <c r="H88" s="8"/>
-      <c r="I88" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="227.25">
-      <c r="A89" s="1" t="s">
+      <c r="G88" s="4">
+        <v>0</v>
+      </c>
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" spans="1:9" ht="227.25" customHeight="1">
+      <c r="A89" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="14">
         <v>20118103</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D89" s="18">
         <v>4</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="7" t="s">
+      <c r="E89" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G89" s="5">
-        <v>0</v>
-      </c>
-      <c r="H89" s="8"/>
-      <c r="I89" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="227.25">
-      <c r="A90" s="1" t="s">
+      <c r="G89" s="4">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3"/>
+    </row>
+    <row r="90" spans="1:9" ht="227.25" customHeight="1">
+      <c r="A90" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="14">
         <v>20119075</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D90" s="19">
         <v>4</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F90" s="7" t="s">
+      <c r="E90" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G90" s="5">
-        <v>0</v>
-      </c>
-      <c r="H90" s="8"/>
-      <c r="I90" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="188.25">
-      <c r="A91" s="1" t="s">
+      <c r="G90" s="4">
+        <v>0</v>
+      </c>
+      <c r="I90" s="3"/>
+    </row>
+    <row r="91" spans="1:9" ht="188.25" customHeight="1">
+      <c r="A91" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="14">
         <v>20119380</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D91" s="18">
         <v>4</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="7" t="s">
+      <c r="E91" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="G91" s="5">
-        <v>0</v>
-      </c>
-      <c r="H91" s="8"/>
-      <c r="I91" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
-      <c r="A92" s="1" t="s">
+      <c r="G91" s="4">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3"/>
+    </row>
+    <row r="92" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A92" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="5">
-        <v>0</v>
-      </c>
-      <c r="H92" s="8"/>
-      <c r="I92" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="252.75">
-      <c r="A93" s="1" t="s">
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="4">
+        <v>0</v>
+      </c>
+      <c r="I92" s="3"/>
+    </row>
+    <row r="93" spans="1:9" ht="252.75" customHeight="1">
+      <c r="A93" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="14">
         <v>19212923</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D93" s="19">
         <v>5</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="7" t="s">
+      <c r="E93" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G93" s="5">
-        <v>0</v>
-      </c>
-      <c r="H93" s="8"/>
-      <c r="I93" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="252.75">
-      <c r="A94" s="1" t="s">
+      <c r="G93" s="4">
+        <v>0</v>
+      </c>
+      <c r="I93" s="3"/>
+    </row>
+    <row r="94" spans="1:9" ht="252.75" customHeight="1">
+      <c r="A94" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="14">
         <v>19213036</v>
       </c>
-      <c r="D94" s="9">
+      <c r="D94" s="18">
         <v>5</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="7" t="s">
+      <c r="E94" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G94" s="5">
-        <v>0</v>
-      </c>
-      <c r="H94" s="7"/>
-      <c r="I94" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="252.75">
-      <c r="A95" s="1" t="s">
+      <c r="G94" s="4">
+        <v>0</v>
+      </c>
+      <c r="H94" s="5"/>
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="1:9" ht="252.75" customHeight="1">
+      <c r="A95" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="14">
         <v>19213245</v>
       </c>
-      <c r="D95" s="10">
+      <c r="D95" s="19">
         <v>5</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="7" t="s">
+      <c r="E95" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G95" s="5">
-        <v>0</v>
-      </c>
-      <c r="H95" s="7"/>
-      <c r="I95" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
-      <c r="A96" s="1" t="s">
+      <c r="G95" s="4">
+        <v>0</v>
+      </c>
+      <c r="H95" s="5"/>
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" spans="1:9" ht="152.4" customHeight="1">
+      <c r="A96" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="14">
         <v>19213485</v>
       </c>
-      <c r="D96" s="9">
+      <c r="D96" s="18">
         <v>5</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96" s="7" t="s">
+      <c r="E96" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G96" s="5">
-        <v>0</v>
-      </c>
-      <c r="H96" s="7"/>
-      <c r="I96" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
-      <c r="A97" s="1" t="s">
+      <c r="G96" s="4">
+        <v>0</v>
+      </c>
+      <c r="H96" s="5"/>
+      <c r="I96" s="3"/>
+    </row>
+    <row r="97" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A97" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="14">
         <v>19213793</v>
       </c>
-      <c r="D97" s="10">
+      <c r="D97" s="19">
         <v>5</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F97" s="7" t="s">
+      <c r="E97" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G97" s="5">
-        <v>0</v>
-      </c>
-      <c r="H97" s="7"/>
-      <c r="I97" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
-      <c r="A98" s="1" t="s">
+      <c r="G97" s="4">
+        <v>0</v>
+      </c>
+      <c r="H97" s="5"/>
+      <c r="I97" s="3"/>
+    </row>
+    <row r="98" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A98" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="14">
         <v>19214013</v>
       </c>
-      <c r="D98" s="9">
+      <c r="D98" s="18">
         <v>5</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="7" t="s">
+      <c r="E98" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G98" s="5">
-        <v>0</v>
-      </c>
-      <c r="H98" s="8"/>
-      <c r="I98" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
-      <c r="A99" s="1" t="s">
+      <c r="G98" s="4">
+        <v>0</v>
+      </c>
+      <c r="I98" s="3"/>
+    </row>
+    <row r="99" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A99" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="14">
         <v>19214073</v>
       </c>
-      <c r="D99" s="10">
+      <c r="D99" s="19">
         <v>5</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="7" t="s">
+      <c r="E99" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G99" s="5">
-        <v>0</v>
-      </c>
-      <c r="H99" s="8"/>
-      <c r="I99" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
-      <c r="A100" s="1" t="s">
+      <c r="G99" s="4">
+        <v>0</v>
+      </c>
+      <c r="I99" s="3"/>
+    </row>
+    <row r="100" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A100" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="14">
         <v>19214127</v>
       </c>
-      <c r="D100" s="9">
+      <c r="D100" s="18">
         <v>5</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" s="7" t="s">
+      <c r="E100" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G100" s="5">
-        <v>0</v>
-      </c>
-      <c r="H100" s="8"/>
-      <c r="I100" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
-      <c r="A101" s="1" t="s">
+      <c r="G100" s="4">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3"/>
+    </row>
+    <row r="101" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A101" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C101" s="14">
         <v>19214542</v>
       </c>
-      <c r="D101" s="10">
+      <c r="D101" s="19">
         <v>6</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="7" t="s">
+      <c r="E101" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G101" s="5">
-        <v>0</v>
-      </c>
-      <c r="H101" s="8"/>
-      <c r="I101" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
-      <c r="A102" s="1" t="s">
+      <c r="G101" s="4">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3"/>
+    </row>
+    <row r="102" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A102" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="14">
         <v>19214706</v>
       </c>
-      <c r="D102" s="9">
+      <c r="D102" s="18">
         <v>5</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="7" t="s">
+      <c r="E102" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G102" s="5">
-        <v>0</v>
-      </c>
-      <c r="H102" s="8"/>
-      <c r="I102" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
-      <c r="A103" s="1" t="s">
+      <c r="G102" s="4">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3"/>
+    </row>
+    <row r="103" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A103" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103" s="14">
         <v>19214883</v>
       </c>
-      <c r="D103" s="10">
+      <c r="D103" s="19">
         <v>5</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="7" t="s">
+      <c r="E103" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="G103" s="5">
-        <v>0</v>
-      </c>
-      <c r="H103" s="8"/>
-      <c r="I103" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
-      <c r="A104" s="1" t="s">
+      <c r="G103" s="4">
+        <v>0</v>
+      </c>
+      <c r="I103" s="3"/>
+    </row>
+    <row r="104" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A104" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104" s="14">
         <v>19215784</v>
       </c>
-      <c r="D104" s="9">
+      <c r="D104" s="18">
         <v>5</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" s="7" t="s">
+      <c r="E104" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G104" s="5">
-        <v>0</v>
-      </c>
-      <c r="H104" s="8"/>
-      <c r="I104" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
-      <c r="A105" s="1" t="s">
+      <c r="G104" s="4">
+        <v>0</v>
+      </c>
+      <c r="I104" s="3"/>
+    </row>
+    <row r="105" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A105" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" s="14">
         <v>19216556</v>
       </c>
-      <c r="D105" s="10">
+      <c r="D105" s="19">
         <v>5</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="7" t="s">
+      <c r="E105" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="G105" s="5">
-        <v>0</v>
-      </c>
-      <c r="H105" s="8"/>
-      <c r="I105" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
-      <c r="A106" s="1" t="s">
+      <c r="G105" s="4">
+        <v>0</v>
+      </c>
+      <c r="I105" s="3"/>
+    </row>
+    <row r="106" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A106" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="14">
         <v>19217404</v>
       </c>
-      <c r="D106" s="9">
+      <c r="D106" s="18">
         <v>5</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" s="7" t="s">
+      <c r="E106" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="G106" s="5">
-        <v>0</v>
-      </c>
-      <c r="H106" s="8"/>
-      <c r="I106" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
-      <c r="A107" s="1" t="s">
+      <c r="G106" s="4">
+        <v>0</v>
+      </c>
+      <c r="I106" s="3"/>
+    </row>
+    <row r="107" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A107" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107" s="14">
         <v>19217902</v>
       </c>
-      <c r="D107" s="10">
+      <c r="D107" s="19">
         <v>5</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107" s="7" t="s">
+      <c r="E107" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G107" s="5">
-        <v>0</v>
-      </c>
-      <c r="H107" s="8"/>
-      <c r="I107" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
-      <c r="A108" s="1" t="s">
+      <c r="G107" s="4">
+        <v>0</v>
+      </c>
+      <c r="I107" s="3"/>
+    </row>
+    <row r="108" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A108" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108" s="14">
         <v>19218228</v>
       </c>
-      <c r="D108" s="9">
+      <c r="D108" s="18">
         <v>5</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F108" s="7" t="s">
+      <c r="E108" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G108" s="5">
-        <v>0</v>
-      </c>
-      <c r="H108" s="8"/>
-      <c r="I108" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
-      <c r="A109" s="1" t="s">
+      <c r="G108" s="4">
+        <v>0</v>
+      </c>
+      <c r="I108" s="3"/>
+    </row>
+    <row r="109" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A109" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C109" s="5">
+      <c r="C109" s="14">
         <v>19218606</v>
       </c>
-      <c r="D109" s="10">
+      <c r="D109" s="19">
         <v>5</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="7" t="s">
+      <c r="E109" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G109" s="5">
-        <v>0</v>
-      </c>
-      <c r="H109" s="8"/>
-      <c r="I109" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
-      <c r="A110" s="1" t="s">
+      <c r="G109" s="4">
+        <v>0</v>
+      </c>
+      <c r="I109" s="3"/>
+    </row>
+    <row r="110" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A110" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C110" s="14">
         <v>19218721</v>
       </c>
-      <c r="D110" s="9">
+      <c r="D110" s="18">
         <v>6</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" s="7" t="s">
+      <c r="E110" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G110" s="5">
-        <v>0</v>
-      </c>
-      <c r="H110" s="14" t="s">
+      <c r="G110" s="4">
+        <v>0</v>
+      </c>
+      <c r="H110" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="I110" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
-      <c r="A111" s="1" t="s">
+      <c r="I110" s="3"/>
+    </row>
+    <row r="111" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A111" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C111" s="14">
         <v>19219006</v>
       </c>
-      <c r="D111" s="10">
+      <c r="D111" s="19">
         <v>5</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F111" s="7" t="s">
+      <c r="E111" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G111" s="5">
-        <v>0</v>
-      </c>
-      <c r="H111" s="8"/>
-      <c r="I111" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
-      <c r="A112" s="1" t="s">
+      <c r="G111" s="4">
+        <v>0</v>
+      </c>
+      <c r="I111" s="3"/>
+    </row>
+    <row r="112" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A112" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112" s="14">
         <v>19219681</v>
       </c>
-      <c r="D112" s="9">
+      <c r="D112" s="18">
         <v>5</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F112" s="7" t="s">
+      <c r="E112" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G112" s="5">
-        <v>0</v>
-      </c>
-      <c r="H112" s="8" t="s">
+      <c r="G112" s="4">
+        <v>0</v>
+      </c>
+      <c r="H112" t="s">
         <v>224</v>
       </c>
-      <c r="I112" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
-      <c r="A113" s="1" t="s">
+      <c r="I112" s="3"/>
+    </row>
+    <row r="113" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A113" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="5">
-        <v>0</v>
-      </c>
-      <c r="H113" s="8"/>
-      <c r="I113" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
-      <c r="A114" s="1" t="s">
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="4">
+        <v>0</v>
+      </c>
+      <c r="I113" s="3"/>
+    </row>
+    <row r="114" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A114" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="14">
         <v>19111687</v>
       </c>
-      <c r="D114" s="10">
+      <c r="D114" s="19">
         <v>6</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F114" s="7" t="s">
+      <c r="E114" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G114" s="5">
-        <v>0</v>
-      </c>
-      <c r="H114" s="8"/>
-      <c r="I114" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
-      <c r="A115" s="1" t="s">
+      <c r="G114" s="4">
+        <v>0</v>
+      </c>
+      <c r="I114" s="5"/>
+    </row>
+    <row r="115" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A115" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C115" s="14">
         <v>19111824</v>
       </c>
-      <c r="D115" s="9">
+      <c r="D115" s="18">
         <v>6</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F115" s="7" t="s">
+      <c r="E115" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G115" s="5">
-        <v>0</v>
-      </c>
-      <c r="H115" s="8"/>
-      <c r="I115" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
-      <c r="A116" s="1" t="s">
+      <c r="G115" s="4">
+        <v>0</v>
+      </c>
+      <c r="I115" s="5"/>
+    </row>
+    <row r="116" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A116" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C116" s="14">
         <v>19113030</v>
       </c>
-      <c r="D116" s="10">
+      <c r="D116" s="19">
         <v>6</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F116" s="7" t="s">
+      <c r="E116" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G116" s="5">
-        <v>0</v>
-      </c>
-      <c r="H116" s="8"/>
-      <c r="I116" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
-      <c r="A117" s="1" t="s">
+      <c r="G116" s="4">
+        <v>0</v>
+      </c>
+      <c r="I116" s="5"/>
+    </row>
+    <row r="117" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A117" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="C117" s="5">
+      <c r="C117" s="14">
         <v>19113291</v>
       </c>
-      <c r="D117" s="9">
+      <c r="D117" s="18">
         <v>7</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F117" s="7" t="s">
+      <c r="E117" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="G117" s="5">
-        <v>0</v>
-      </c>
-      <c r="H117" s="8" t="s">
+      <c r="G117" s="4">
+        <v>0</v>
+      </c>
+      <c r="H117" t="s">
         <v>234</v>
       </c>
-      <c r="I117" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
-      <c r="A118" s="1" t="s">
+      <c r="I117" s="5"/>
+    </row>
+    <row r="118" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A118" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C118" s="14">
         <v>19113317</v>
       </c>
-      <c r="D118" s="10">
+      <c r="D118" s="19">
         <v>6</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F118" s="7" t="s">
+      <c r="E118" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G118" s="5">
-        <v>0</v>
-      </c>
-      <c r="H118" s="8"/>
-      <c r="I118" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
-      <c r="A119" s="1" t="s">
+      <c r="G118" s="4">
+        <v>0</v>
+      </c>
+      <c r="I118" s="3"/>
+    </row>
+    <row r="119" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A119" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C119" s="5">
+      <c r="C119" s="14">
         <v>19113770</v>
       </c>
-      <c r="D119" s="9">
+      <c r="D119" s="18">
         <v>6</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F119" s="7" t="s">
+      <c r="E119" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G119" s="5">
-        <v>0</v>
-      </c>
-      <c r="H119" s="8"/>
-      <c r="I119" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
-      <c r="A120" s="1" t="s">
+      <c r="G119" s="4">
+        <v>0</v>
+      </c>
+      <c r="I119" s="3"/>
+    </row>
+    <row r="120" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A120" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120" s="14">
         <v>19114255</v>
       </c>
-      <c r="D120" s="10">
+      <c r="D120" s="19">
         <v>6</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F120" s="7" t="s">
+      <c r="E120" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="G120" s="5">
-        <v>0</v>
-      </c>
-      <c r="H120" s="8"/>
-      <c r="I120" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
-      <c r="A121" s="1" t="s">
+      <c r="G120" s="4">
+        <v>0</v>
+      </c>
+      <c r="I120" s="3"/>
+    </row>
+    <row r="121" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A121" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C121" s="14">
         <v>19114476</v>
       </c>
-      <c r="D121" s="9">
+      <c r="D121" s="18">
         <v>6</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F121" s="7" t="s">
+      <c r="E121" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="G121" s="5">
-        <v>0</v>
-      </c>
-      <c r="H121" s="8"/>
-      <c r="I121" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
-      <c r="A122" s="1" t="s">
+      <c r="G121" s="4">
+        <v>0</v>
+      </c>
+      <c r="I121" s="3"/>
+    </row>
+    <row r="122" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A122" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C122" s="14">
         <v>19115127</v>
       </c>
-      <c r="D122" s="10">
+      <c r="D122" s="19">
         <v>6</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" s="7" t="s">
+      <c r="E122" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="G122" s="5">
-        <v>0</v>
-      </c>
-      <c r="H122" s="8"/>
-      <c r="I122" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
-      <c r="A123" s="1" t="s">
+      <c r="G122" s="4">
+        <v>0</v>
+      </c>
+      <c r="I122" s="3"/>
+    </row>
+    <row r="123" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A123" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C123" s="5">
+      <c r="C123" s="14">
         <v>19116132</v>
       </c>
-      <c r="D123" s="9">
+      <c r="D123" s="18">
         <v>6</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F123" s="7" t="s">
+      <c r="E123" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G123" s="5">
-        <v>0</v>
-      </c>
-      <c r="H123" s="8"/>
-      <c r="I123" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
-      <c r="A124" s="1" t="s">
+      <c r="G123" s="4">
+        <v>0</v>
+      </c>
+      <c r="I123" s="3"/>
+    </row>
+    <row r="124" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A124" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C124" s="14">
         <v>19116473</v>
       </c>
-      <c r="D124" s="10">
+      <c r="D124" s="19">
         <v>6</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F124" s="7" t="s">
+      <c r="E124" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G124" s="5">
-        <v>0</v>
-      </c>
-      <c r="H124" s="8"/>
-      <c r="I124" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
-      <c r="A125" s="1" t="s">
+      <c r="G124" s="4">
+        <v>0</v>
+      </c>
+      <c r="I124" s="3"/>
+    </row>
+    <row r="125" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A125" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="C125" s="5">
+      <c r="C125" s="14">
         <v>19117415</v>
       </c>
-      <c r="D125" s="9">
+      <c r="D125" s="18">
         <v>6</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F125" s="7" t="s">
+      <c r="E125" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G125" s="5">
-        <v>0</v>
-      </c>
-      <c r="H125" s="8"/>
-      <c r="I125" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
-      <c r="A126" s="1" t="s">
+      <c r="G125" s="4">
+        <v>0</v>
+      </c>
+      <c r="I125" s="3"/>
+    </row>
+    <row r="126" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A126" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126" s="14">
         <v>19118069</v>
       </c>
-      <c r="D126" s="10">
+      <c r="D126" s="19">
         <v>6</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F126" s="7" t="s">
+      <c r="E126" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G126" s="5">
-        <v>0</v>
-      </c>
-      <c r="H126" s="8"/>
-      <c r="I126" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
-      <c r="A127" s="1" t="s">
+      <c r="G126" s="4">
+        <v>0</v>
+      </c>
+      <c r="I126" s="3"/>
+    </row>
+    <row r="127" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A127" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C127" s="14">
         <v>19118417</v>
       </c>
-      <c r="D127" s="9">
+      <c r="D127" s="18">
         <v>6</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F127" s="7" t="s">
+      <c r="E127" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="G127" s="5">
-        <v>0</v>
-      </c>
-      <c r="H127" s="8"/>
-      <c r="I127" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
-      <c r="A128" s="1" t="s">
+      <c r="G127" s="4">
+        <v>0</v>
+      </c>
+      <c r="I127" s="3"/>
+    </row>
+    <row r="128" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A128" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C128" s="14">
         <v>19119747</v>
       </c>
-      <c r="D128" s="10">
+      <c r="D128" s="19">
         <v>6</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F128" s="7" t="s">
+      <c r="E128" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G128" s="5">
-        <v>0</v>
-      </c>
-      <c r="H128" s="8"/>
-      <c r="I128" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
-      <c r="A129" s="1" t="s">
+      <c r="G128" s="4">
+        <v>0</v>
+      </c>
+      <c r="I128" s="3"/>
+    </row>
+    <row r="129" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A129" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="C129" s="5">
+      <c r="C129" s="14">
         <v>19119959</v>
       </c>
-      <c r="D129" s="9">
+      <c r="D129" s="18">
         <v>6</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F129" s="7" t="s">
+      <c r="E129" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G129" s="5">
-        <v>0</v>
-      </c>
-      <c r="H129" s="8"/>
-      <c r="I129" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
-      <c r="A130" s="1" t="s">
+      <c r="G129" s="4">
+        <v>0</v>
+      </c>
+      <c r="I129" s="3"/>
+    </row>
+    <row r="130" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A130" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="B130" s="13"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="5">
-        <v>0</v>
-      </c>
-      <c r="H130" s="8"/>
-      <c r="I130" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
-      <c r="A131" s="1" t="s">
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="4">
+        <v>0</v>
+      </c>
+      <c r="I130" s="3"/>
+    </row>
+    <row r="131" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A131" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="C131" s="5">
+      <c r="C131" s="14">
         <v>18212204</v>
       </c>
-      <c r="D131" s="10">
+      <c r="D131" s="19">
         <v>7</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F131" s="7" t="s">
+      <c r="E131" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="G131" s="5">
-        <v>0</v>
-      </c>
-      <c r="H131" s="7"/>
-      <c r="I131" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
-      <c r="A132" s="1" t="s">
+      <c r="G131" s="4">
+        <v>0</v>
+      </c>
+      <c r="H131" s="5"/>
+      <c r="I131" s="3"/>
+    </row>
+    <row r="132" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A132" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="C132" s="5">
+      <c r="C132" s="14">
         <v>18212231</v>
       </c>
-      <c r="D132" s="9">
+      <c r="D132" s="18">
         <v>7</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F132" s="7" t="s">
+      <c r="E132" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="G132" s="5">
-        <v>0</v>
-      </c>
-      <c r="H132" s="8"/>
-      <c r="I132" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
-      <c r="A133" s="1" t="s">
+      <c r="G132" s="4">
+        <v>0</v>
+      </c>
+      <c r="I132" s="3"/>
+    </row>
+    <row r="133" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A133" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C133" s="5">
+      <c r="C133" s="14">
         <v>18212566</v>
       </c>
-      <c r="D133" s="10">
+      <c r="D133" s="19">
         <v>7</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F133" s="7" t="s">
+      <c r="E133" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="G133" s="5">
-        <v>0</v>
-      </c>
-      <c r="H133" s="8"/>
-      <c r="I133" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
-      <c r="A134" s="1" t="s">
+      <c r="G133" s="4">
+        <v>0</v>
+      </c>
+      <c r="I133" s="3"/>
+    </row>
+    <row r="134" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A134" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C134" s="14">
         <v>18212683</v>
       </c>
-      <c r="D134" s="9">
+      <c r="D134" s="18">
         <v>7</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F134" s="7" t="s">
+      <c r="E134" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="G134" s="5">
-        <v>0</v>
-      </c>
-      <c r="H134" s="8"/>
-      <c r="I134" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
-      <c r="A135" s="1" t="s">
+      <c r="G134" s="4">
+        <v>0</v>
+      </c>
+      <c r="I134" s="3"/>
+    </row>
+    <row r="135" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A135" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="C135" s="5">
+      <c r="C135" s="14">
         <v>18212751</v>
       </c>
-      <c r="D135" s="10">
+      <c r="D135" s="19">
         <v>7</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F135" s="7" t="s">
+      <c r="E135" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="G135" s="5">
-        <v>0</v>
-      </c>
-      <c r="H135" s="8"/>
-      <c r="I135" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
-      <c r="A136" s="1" t="s">
+      <c r="G135" s="4">
+        <v>0</v>
+      </c>
+      <c r="I135" s="3"/>
+    </row>
+    <row r="136" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A136" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="C136" s="5">
+      <c r="C136" s="14">
         <v>18213002</v>
       </c>
-      <c r="D136" s="9">
+      <c r="D136" s="18">
         <v>7</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F136" s="7" t="s">
+      <c r="E136" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="G136" s="5">
-        <v>0</v>
-      </c>
-      <c r="H136" s="8"/>
-      <c r="I136" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
-      <c r="A137" s="1" t="s">
+      <c r="G136" s="4">
+        <v>0</v>
+      </c>
+      <c r="I136" s="3"/>
+    </row>
+    <row r="137" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A137" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="C137" s="5">
+      <c r="C137" s="14">
         <v>18213102</v>
       </c>
-      <c r="D137" s="10">
+      <c r="D137" s="19">
         <v>7</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F137" s="7" t="s">
+      <c r="E137" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="G137" s="5">
-        <v>0</v>
-      </c>
-      <c r="H137" s="8"/>
-      <c r="I137" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
-      <c r="A138" s="1" t="s">
+      <c r="G137" s="4">
+        <v>0</v>
+      </c>
+      <c r="I137" s="3"/>
+    </row>
+    <row r="138" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A138" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="C138" s="5">
+      <c r="C138" s="14">
         <v>18214373</v>
       </c>
-      <c r="D138" s="9">
+      <c r="D138" s="18">
         <v>7</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F138" s="7" t="s">
+      <c r="E138" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="G138" s="5">
-        <v>0</v>
-      </c>
-      <c r="H138" s="8"/>
-      <c r="I138" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
-      <c r="A139" s="1" t="s">
+      <c r="G138" s="4">
+        <v>0</v>
+      </c>
+      <c r="I138" s="3"/>
+    </row>
+    <row r="139" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A139" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="C139" s="5">
+      <c r="C139" s="14">
         <v>18216423</v>
       </c>
-      <c r="D139" s="10">
+      <c r="D139" s="19">
         <v>7</v>
       </c>
-      <c r="E139" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F139" s="7" t="s">
+      <c r="E139" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="G139" s="5">
-        <v>0</v>
-      </c>
-      <c r="H139" s="8"/>
-      <c r="I139" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
-      <c r="A140" s="1" t="s">
+      <c r="G139" s="4">
+        <v>0</v>
+      </c>
+      <c r="I139" s="3"/>
+    </row>
+    <row r="140" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A140" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="C140" s="5">
+      <c r="C140" s="14">
         <v>18216618</v>
       </c>
-      <c r="D140" s="9">
+      <c r="D140" s="18">
         <v>7</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F140" s="7" t="s">
+      <c r="E140" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="G140" s="5">
-        <v>0</v>
-      </c>
-      <c r="H140" s="8"/>
-      <c r="I140" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
-      <c r="A141" s="1" t="s">
+      <c r="G140" s="4">
+        <v>0</v>
+      </c>
+      <c r="I140" s="3"/>
+    </row>
+    <row r="141" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A141" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C141" s="5">
+      <c r="C141" s="14">
         <v>18217982</v>
       </c>
-      <c r="D141" s="10">
+      <c r="D141" s="19">
         <v>7</v>
       </c>
-      <c r="E141" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F141" s="7" t="s">
+      <c r="E141" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="G141" s="5">
-        <v>0</v>
-      </c>
-      <c r="H141" s="8"/>
-      <c r="I141" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
-      <c r="A142" s="1" t="s">
+      <c r="G141" s="4">
+        <v>0</v>
+      </c>
+      <c r="I141" s="3"/>
+    </row>
+    <row r="142" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A142" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="C142" s="5">
+      <c r="C142" s="14">
         <v>18218604</v>
       </c>
-      <c r="D142" s="9">
+      <c r="D142" s="18">
         <v>7</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F142" s="7" t="s">
+      <c r="E142" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="G142" s="5">
-        <v>0</v>
-      </c>
-      <c r="H142" s="8"/>
-      <c r="I142" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
-      <c r="A143" s="1" t="s">
+      <c r="G142" s="4">
+        <v>0</v>
+      </c>
+      <c r="I142" s="3"/>
+    </row>
+    <row r="143" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A143" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="C143" s="5">
+      <c r="C143" s="14">
         <v>18219562</v>
       </c>
-      <c r="D143" s="10">
+      <c r="D143" s="19">
         <v>7</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F143" s="7" t="s">
+      <c r="E143" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="G143" s="5">
-        <v>0</v>
-      </c>
-      <c r="H143" s="8"/>
-      <c r="I143" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
-      <c r="A144" s="1" t="s">
+      <c r="G143" s="4">
+        <v>0</v>
+      </c>
+      <c r="I143" s="3"/>
+    </row>
+    <row r="144" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A144" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="B144" s="13"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="5">
-        <v>0</v>
-      </c>
-      <c r="H144" s="7"/>
-      <c r="I144" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
-      <c r="A145" s="1" t="s">
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="4">
+        <v>0</v>
+      </c>
+      <c r="H144" s="5"/>
+      <c r="I144" s="3"/>
+    </row>
+    <row r="145" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A145" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="C145" s="5">
+      <c r="C145" s="14">
         <v>18111329</v>
       </c>
-      <c r="D145" s="10">
-        <v>8</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F145" s="7" t="s">
+      <c r="D145" s="19">
+        <v>8</v>
+      </c>
+      <c r="E145" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="G145" s="5">
-        <v>0</v>
-      </c>
-      <c r="H145" s="7"/>
-      <c r="I145" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
-      <c r="A146" s="1" t="s">
+      <c r="G145" s="4">
+        <v>0</v>
+      </c>
+      <c r="H145" s="5"/>
+      <c r="I145" s="3"/>
+    </row>
+    <row r="146" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A146" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="C146" s="5">
+      <c r="C146" s="14">
         <v>18112108</v>
       </c>
-      <c r="D146" s="9">
-        <v>8</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F146" s="7" t="s">
+      <c r="D146" s="18">
+        <v>8</v>
+      </c>
+      <c r="E146" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="G146" s="5">
-        <v>0</v>
-      </c>
-      <c r="H146" s="8"/>
-      <c r="I146" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
-      <c r="A147" s="1" t="s">
+      <c r="G146" s="4">
+        <v>0</v>
+      </c>
+      <c r="I146" s="3"/>
+    </row>
+    <row r="147" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A147" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="C147" s="5">
+      <c r="C147" s="14">
         <v>18112886</v>
       </c>
-      <c r="D147" s="10">
-        <v>8</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F147" s="7" t="s">
+      <c r="D147" s="19">
+        <v>8</v>
+      </c>
+      <c r="E147" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="G147" s="5">
-        <v>0</v>
-      </c>
-      <c r="H147" s="8"/>
-      <c r="I147" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
-      <c r="A148" s="1" t="s">
+      <c r="G147" s="4">
+        <v>0</v>
+      </c>
+      <c r="I147" s="3"/>
+    </row>
+    <row r="148" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A148" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="C148" s="5">
+      <c r="C148" s="14">
         <v>18113428</v>
       </c>
-      <c r="D148" s="9">
-        <v>8</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F148" s="7" t="s">
+      <c r="D148" s="18">
+        <v>8</v>
+      </c>
+      <c r="E148" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="G148" s="5">
-        <v>0</v>
-      </c>
-      <c r="H148" s="8"/>
-      <c r="I148" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
-      <c r="A149" s="1" t="s">
+      <c r="G148" s="4">
+        <v>0</v>
+      </c>
+      <c r="I148" s="3"/>
+    </row>
+    <row r="149" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A149" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="C149" s="5">
+      <c r="C149" s="14">
         <v>18113488</v>
       </c>
-      <c r="D149" s="10">
-        <v>8</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F149" s="7" t="s">
+      <c r="D149" s="19">
+        <v>8</v>
+      </c>
+      <c r="E149" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="G149" s="5">
-        <v>0</v>
-      </c>
-      <c r="H149" s="8"/>
-      <c r="I149" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
-      <c r="A150" s="1" t="s">
+      <c r="G149" s="4">
+        <v>0</v>
+      </c>
+      <c r="I149" s="3"/>
+    </row>
+    <row r="150" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A150" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="C150" s="5">
+      <c r="C150" s="14">
         <v>18113869</v>
       </c>
-      <c r="D150" s="9">
-        <v>8</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F150" s="7" t="s">
+      <c r="D150" s="18">
+        <v>8</v>
+      </c>
+      <c r="E150" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="G150" s="5">
-        <v>0</v>
-      </c>
-      <c r="H150" s="8"/>
-      <c r="I150" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
-      <c r="A151" s="1" t="s">
+      <c r="G150" s="4">
+        <v>0</v>
+      </c>
+      <c r="I150" s="3"/>
+    </row>
+    <row r="151" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A151" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="C151" s="5">
+      <c r="C151" s="14">
         <v>18114891</v>
       </c>
-      <c r="D151" s="10">
-        <v>8</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F151" s="7" t="s">
+      <c r="D151" s="19">
+        <v>8</v>
+      </c>
+      <c r="E151" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="G151" s="5">
-        <v>0</v>
-      </c>
-      <c r="H151" s="8"/>
-      <c r="I151" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
-      <c r="A152" s="1" t="s">
+      <c r="G151" s="4">
+        <v>0</v>
+      </c>
+      <c r="I151" s="3"/>
+    </row>
+    <row r="152" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A152" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C152" s="5">
+      <c r="C152" s="14">
         <v>18116550</v>
       </c>
-      <c r="D152" s="9">
-        <v>8</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F152" s="7" t="s">
+      <c r="D152" s="18">
+        <v>8</v>
+      </c>
+      <c r="E152" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="G152" s="5">
-        <v>0</v>
-      </c>
-      <c r="H152" s="8"/>
-      <c r="I152" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
-      <c r="A153" s="1" t="s">
+      <c r="G152" s="4">
+        <v>0</v>
+      </c>
+      <c r="I152" s="3"/>
+    </row>
+    <row r="153" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A153" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="C153" s="5">
+      <c r="C153" s="14">
         <v>18116870</v>
       </c>
-      <c r="D153" s="10">
-        <v>8</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F153" s="7" t="s">
+      <c r="D153" s="19">
+        <v>8</v>
+      </c>
+      <c r="E153" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="G153" s="5">
-        <v>0</v>
-      </c>
-      <c r="H153" s="8"/>
-      <c r="I153" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
-      <c r="A154" s="1" t="s">
+      <c r="G153" s="4">
+        <v>0</v>
+      </c>
+      <c r="I153" s="3"/>
+    </row>
+    <row r="154" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A154" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="C154" s="5">
+      <c r="C154" s="14">
         <v>18118621</v>
       </c>
-      <c r="D154" s="9">
-        <v>8</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F154" s="7" t="s">
+      <c r="D154" s="18">
+        <v>8</v>
+      </c>
+      <c r="E154" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="G154" s="5">
-        <v>0</v>
-      </c>
-      <c r="H154" s="8"/>
-      <c r="I154" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
-      <c r="A155" s="1" t="s">
+      <c r="G154" s="4">
+        <v>0</v>
+      </c>
+      <c r="I154" s="3"/>
+    </row>
+    <row r="155" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A155" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="B155" s="13"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="13"/>
-      <c r="H155" s="8"/>
-      <c r="I155" s="4"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="6"/>
+      <c r="I155" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dados_dos_alunos.xlsx
+++ b/dados_dos_alunos.xlsx
@@ -549,7 +549,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
       <selection activeCell="D115" sqref="D115"/>
@@ -5452,6 +5452,68 @@
         <v>0</v>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Abbc</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>12312312311</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>17415</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Padrão</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>COMP359, COMP360, COMP361, COMP362, COMP363</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Daniel Barbosa</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>12318207444</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>10855</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Padrão</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>COMP359, COMP360, COMP361, COMP362, COMP363</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados_dos_alunos.xlsx
+++ b/dados_dos_alunos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="316">
   <si>
     <t>CPF</t>
   </si>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Eletivas pagas </t>
   </si>
   <si>
-    <t>Disciplinas Ativas</t>
+    <t>Disciplinas Solicitadas</t>
   </si>
   <si>
     <t>Anderson Julio Gomes</t>
@@ -46,6 +46,9 @@
     <t>COMP359, COMP360, COMP361, COMP362, COMP363, COMP364, COMP365, COMP366, COMP367</t>
   </si>
   <si>
+    <t>COMP368, COMP404</t>
+  </si>
+  <si>
     <t>Augusto Raimundo Victor Drumond</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>Hadassa Márcia Lima</t>
   </si>
   <si>
+    <t>COMP368, COMP369, COMP370, COMP389, COMP392, COMP393, COMP394, COMP400, COMP402</t>
+  </si>
+  <si>
     <t>Henry Carlos Eduardo Luiz Santos</t>
   </si>
   <si>
@@ -100,12 +106,18 @@
     <t>João Miguel Cláudio Pinto</t>
   </si>
   <si>
+    <t>COMP368, COMP369, COMP370</t>
+  </si>
+  <si>
     <t>Joaquim Arthur Almada</t>
   </si>
   <si>
     <t>109.124.399-98</t>
   </si>
   <si>
+    <t>COMP370, COMP369, COMP368</t>
+  </si>
+  <si>
     <t>Julia Lavínia Eduarda Nogueira</t>
   </si>
   <si>
@@ -160,6 +172,9 @@
     <t>590.567.942-80</t>
   </si>
   <si>
+    <t>COMP368, COMP369, COMP370, COMP371</t>
+  </si>
+  <si>
     <t>Raimundo Lucas Nicolas Viana</t>
   </si>
   <si>
@@ -175,12 +190,18 @@
     <t>COMP359, COMP360, COMP361, COMP362, COMP363, COMP366, COMP367</t>
   </si>
   <si>
+    <t>COMP370, COMP368, COMP371</t>
+  </si>
+  <si>
     <t>Renato Samuel Caldeira</t>
   </si>
   <si>
     <t>958.161.106-16</t>
   </si>
   <si>
+    <t>COMP371, COMP370, COMP368</t>
+  </si>
+  <si>
     <t>Ricardo Filipe Porto</t>
   </si>
   <si>
@@ -193,6 +214,9 @@
     <t>452.431.107-60</t>
   </si>
   <si>
+    <t>COMP371, COMP370, COMP369</t>
+  </si>
+  <si>
     <t>Ryan Cauã José</t>
   </si>
   <si>
@@ -718,7 +742,7 @@
     <t>COMP359, COMP360, COMP361, COMP362, COMP363, COMP364, COMP365, COMP366, COMP367, COMP368, COMP369, COMP370, COMP371, COMP372, COMP373, COMP374, COMP376, COMP378, COMP379, COMP380, COMP381, COMP382</t>
   </si>
   <si>
-    <t>COMP395, COMP397</t>
+    <t>COMP395, COMP397, COMP399</t>
   </si>
   <si>
     <t>Emanuel Viana</t>
@@ -1407,11 +1431,11 @@
     <col min="5" max="5" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="17" width="48.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="30">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="32.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1436,7 +1460,7 @@
       </c>
       <c r="I1" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="114">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="123">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1458,12 +1482,14 @@
       <c r="G2" s="5">
         <v>0</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="I2" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="114">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="123">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5">
         <v>26482863906</v>
@@ -1486,9 +1512,9 @@
       <c r="H3" s="8"/>
       <c r="I3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="114">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="120.75">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5">
         <v>74488292704</v>
@@ -1511,9 +1537,9 @@
       <c r="H4" s="8"/>
       <c r="I4" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="114">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="120.75">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5">
         <v>5880624811</v>
@@ -1538,7 +1564,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="90">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5">
         <v>17086208000</v>
@@ -1550,10 +1576,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
@@ -1561,9 +1587,9 @@
       <c r="H6" s="8"/>
       <c r="I6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="114">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="120.75">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5">
         <v>52296920578</v>
@@ -1586,9 +1612,9 @@
       <c r="H7" s="8"/>
       <c r="I7" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="90">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="95.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5">
         <v>77794285836</v>
@@ -1600,10 +1626,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
@@ -1611,9 +1637,9 @@
       <c r="H8" s="8"/>
       <c r="I8" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="90">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="95.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="5">
         <v>38709510281</v>
@@ -1625,10 +1651,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
@@ -1636,9 +1662,9 @@
       <c r="H9" s="8"/>
       <c r="I9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="114">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="120.75">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5">
         <v>25036813871</v>
@@ -1661,9 +1687,9 @@
       <c r="H10" s="8"/>
       <c r="I10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="90">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="95.25">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="5">
         <v>22746662701</v>
@@ -1675,10 +1701,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
@@ -1686,9 +1712,9 @@
       <c r="H11" s="8"/>
       <c r="I11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="114">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="120.75">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="5">
         <v>78607753959</v>
@@ -1711,9 +1737,9 @@
       <c r="H12" s="8"/>
       <c r="I12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="90">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="95.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5">
         <v>5415614052</v>
@@ -1725,10 +1751,10 @@
         <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" s="5">
         <v>0</v>
@@ -1736,9 +1762,9 @@
       <c r="H13" s="8"/>
       <c r="I13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="90">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="95.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="5">
         <v>95204642633</v>
@@ -1747,23 +1773,25 @@
         <v>21113691</v>
       </c>
       <c r="D14" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
       </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="I14" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="114">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="120.75">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" s="5">
         <v>21682796752</v>
@@ -1788,7 +1816,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="114">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="5">
         <v>26138812085</v>
@@ -1813,7 +1841,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="114">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="5">
         <v>10396248209</v>
@@ -1838,7 +1866,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="90">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="5">
         <v>53928530216</v>
@@ -1847,76 +1875,82 @@
         <v>21114074</v>
       </c>
       <c r="D18" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" s="5">
         <v>0</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="I18" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="90">
       <c r="A19" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="5">
         <v>21114092</v>
       </c>
       <c r="D19" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" s="5">
         <v>0</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="I19" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="90">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C20" s="5">
         <v>21114153</v>
       </c>
       <c r="D20" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20" s="5">
         <v>0</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="I20" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="114">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C21" s="5">
         <v>21114305</v>
@@ -1938,10 +1972,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="114">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C22" s="5">
         <v>21114761</v>
@@ -1963,10 +1997,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="114">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C23" s="5">
         <v>21115146</v>
@@ -1988,10 +2022,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="114">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C24" s="5">
         <v>21115301</v>
@@ -2013,10 +2047,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C25" s="5">
         <v>21115449</v>
@@ -2038,10 +2072,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C26" s="5">
         <v>21115680</v>
@@ -2063,10 +2097,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C27" s="5">
         <v>21115731</v>
@@ -2075,10 +2109,10 @@
         <v>2</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27" s="5">
         <v>0</v>
@@ -2088,16 +2122,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C28" s="5">
         <v>21115821</v>
       </c>
       <c r="D28" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>8</v>
@@ -2108,15 +2142,17 @@
       <c r="G28" s="5">
         <v>0</v>
       </c>
-      <c r="H28" s="8"/>
+      <c r="H28" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="I28" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C29" s="5">
         <v>21116215</v>
@@ -2138,60 +2174,64 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C30" s="5">
         <v>21116708</v>
       </c>
       <c r="D30" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G30" s="5">
         <v>0</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="I30" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C31" s="5">
         <v>21117122</v>
       </c>
       <c r="D31" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G31" s="5">
         <v>0</v>
       </c>
-      <c r="H31" s="8"/>
+      <c r="H31" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="I31" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C32" s="5">
         <v>21117175</v>
@@ -2200,10 +2240,10 @@
         <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G32" s="5">
         <v>0</v>
@@ -2213,16 +2253,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C33" s="5">
         <v>21117369</v>
       </c>
       <c r="D33" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>8</v>
@@ -2233,15 +2273,17 @@
       <c r="G33" s="5">
         <v>0</v>
       </c>
-      <c r="H33" s="8"/>
+      <c r="H33" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="I33" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C34" s="5">
         <v>21117592</v>
@@ -2250,7 +2292,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>9</v>
@@ -2263,10 +2305,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C35" s="5">
         <v>21117885</v>
@@ -2275,10 +2317,10 @@
         <v>2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G35" s="5">
         <v>0</v>
@@ -2288,10 +2330,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C36" s="5">
         <v>21118037</v>
@@ -2300,10 +2342,10 @@
         <v>2</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G36" s="5">
         <v>0</v>
@@ -2313,10 +2355,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C37" s="5">
         <v>20219818</v>
@@ -2328,7 +2370,7 @@
         <v>8</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G37" s="5">
         <v>0</v>
@@ -2338,10 +2380,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C38" s="5">
         <v>20219888</v>
@@ -2353,7 +2395,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G38" s="5">
         <v>0</v>
@@ -2363,10 +2405,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C39" s="5">
         <v>20216936</v>
@@ -2378,7 +2420,7 @@
         <v>8</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G39" s="5">
         <v>0</v>
@@ -2388,10 +2430,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C40" s="5">
         <v>20215003</v>
@@ -2403,7 +2445,7 @@
         <v>8</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G40" s="5">
         <v>0</v>
@@ -2413,10 +2455,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C41" s="5">
         <v>20213682</v>
@@ -2425,10 +2467,10 @@
         <v>3</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G41" s="5">
         <v>0</v>
@@ -2438,10 +2480,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C42" s="5">
         <v>20214970</v>
@@ -2453,7 +2495,7 @@
         <v>8</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G42" s="5">
         <v>0</v>
@@ -2463,10 +2505,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C43" s="5">
         <v>20217312</v>
@@ -2478,7 +2520,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G43" s="5">
         <v>0</v>
@@ -2488,10 +2530,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C44" s="5">
         <v>20218755</v>
@@ -2500,10 +2542,10 @@
         <v>3</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G44" s="5">
         <v>0</v>
@@ -2513,10 +2555,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C45" s="5">
         <v>20215146</v>
@@ -2525,10 +2567,10 @@
         <v>3</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G45" s="5">
         <v>0</v>
@@ -2538,10 +2580,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C46" s="5">
         <v>20216028</v>
@@ -2550,10 +2592,10 @@
         <v>3</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G46" s="5">
         <v>0</v>
@@ -2563,10 +2605,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C47" s="5">
         <v>20213294</v>
@@ -2575,10 +2617,10 @@
         <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G47" s="5">
         <v>0</v>
@@ -2588,10 +2630,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C48" s="5">
         <v>20218438</v>
@@ -2603,7 +2645,7 @@
         <v>8</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G48" s="5">
         <v>0</v>
@@ -2613,10 +2655,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C49" s="5">
         <v>20217406</v>
@@ -2625,10 +2667,10 @@
         <v>3</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G49" s="5">
         <v>0</v>
@@ -2638,10 +2680,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C50" s="5">
         <v>20219976</v>
@@ -2650,10 +2692,10 @@
         <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G50" s="5">
         <v>0</v>
@@ -2663,10 +2705,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C51" s="5">
         <v>20219963</v>
@@ -2675,10 +2717,10 @@
         <v>3</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G51" s="5">
         <v>0</v>
@@ -2688,10 +2730,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C52" s="5">
         <v>20216321</v>
@@ -2700,10 +2742,10 @@
         <v>3</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G52" s="5">
         <v>0</v>
@@ -2713,10 +2755,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C53" s="5">
         <v>20217814</v>
@@ -2725,10 +2767,10 @@
         <v>3</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G53" s="5">
         <v>0</v>
@@ -2738,10 +2780,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C54" s="5">
         <v>20219227</v>
@@ -2753,7 +2795,7 @@
         <v>8</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G54" s="5">
         <v>0</v>
@@ -2763,10 +2805,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C55" s="5">
         <v>20214857</v>
@@ -2775,10 +2817,10 @@
         <v>3</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G55" s="5">
         <v>0</v>
@@ -2788,10 +2830,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C56" s="5">
         <v>20211737</v>
@@ -2803,7 +2845,7 @@
         <v>8</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G56" s="5">
         <v>0</v>
@@ -2813,7 +2855,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B57" s="5">
         <v>24823069499</v>
@@ -2825,10 +2867,10 @@
         <v>3</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G57" s="5">
         <v>0</v>
@@ -2838,7 +2880,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B58" s="5">
         <v>59347140406</v>
@@ -2853,7 +2895,7 @@
         <v>8</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G58" s="5">
         <v>0</v>
@@ -2863,7 +2905,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B59" s="5">
         <v>20353639427</v>
@@ -2875,10 +2917,10 @@
         <v>3</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G59" s="5">
         <v>0</v>
@@ -2888,10 +2930,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C60" s="5">
         <v>20213993</v>
@@ -2903,7 +2945,7 @@
         <v>8</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G60" s="5">
         <v>0</v>
@@ -2913,10 +2955,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C61" s="5">
         <v>20216215</v>
@@ -2925,10 +2967,10 @@
         <v>3</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G61" s="5">
         <v>0</v>
@@ -2938,10 +2980,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C62" s="5">
         <v>20218043</v>
@@ -2953,7 +2995,7 @@
         <v>8</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G62" s="5">
         <v>0</v>
@@ -2963,10 +3005,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C63" s="5">
         <v>20213798</v>
@@ -2978,7 +3020,7 @@
         <v>8</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G63" s="5">
         <v>0</v>
@@ -2988,10 +3030,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C64" s="5">
         <v>20219237</v>
@@ -3003,7 +3045,7 @@
         <v>8</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G64" s="5">
         <v>0</v>
@@ -3013,10 +3055,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C65" s="5">
         <v>20216526</v>
@@ -3025,10 +3067,10 @@
         <v>3</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G65" s="5">
         <v>0</v>
@@ -3038,10 +3080,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C66" s="5">
         <v>20214078</v>
@@ -3050,10 +3092,10 @@
         <v>3</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G66" s="5">
         <v>0</v>
@@ -3063,7 +3105,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -3078,10 +3120,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C68" s="5">
         <v>20111036</v>
@@ -3093,7 +3135,7 @@
         <v>8</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G68" s="5">
         <v>0</v>
@@ -3103,10 +3145,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C69" s="5">
         <v>20111048</v>
@@ -3118,7 +3160,7 @@
         <v>8</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G69" s="5">
         <v>0</v>
@@ -3128,10 +3170,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C70" s="5">
         <v>20111289</v>
@@ -3143,7 +3185,7 @@
         <v>8</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G70" s="5">
         <v>0</v>
@@ -3153,10 +3195,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C71" s="5">
         <v>20112036</v>
@@ -3165,10 +3207,10 @@
         <v>4</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G71" s="5">
         <v>0</v>
@@ -3178,10 +3220,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C72" s="5">
         <v>20112379</v>
@@ -3193,7 +3235,7 @@
         <v>8</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G72" s="5">
         <v>0</v>
@@ -3203,10 +3245,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C73" s="5">
         <v>20112455</v>
@@ -3215,10 +3257,10 @@
         <v>4</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G73" s="5">
         <v>0</v>
@@ -3228,10 +3270,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C74" s="5">
         <v>20112461</v>
@@ -3240,10 +3282,10 @@
         <v>4</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G74" s="5">
         <v>0</v>
@@ -3251,12 +3293,12 @@
       <c r="H74" s="8"/>
       <c r="I74" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="135.75">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C75" s="5">
         <v>20112657</v>
@@ -3265,10 +3307,10 @@
         <v>4</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G75" s="5">
         <v>0</v>
@@ -3276,12 +3318,12 @@
       <c r="H75" s="8"/>
       <c r="I75" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="201">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C76" s="5">
         <v>20112716</v>
@@ -3290,10 +3332,10 @@
         <v>4</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G76" s="5">
         <v>0</v>
@@ -3301,12 +3343,12 @@
       <c r="H76" s="8"/>
       <c r="I76" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="201">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C77" s="5">
         <v>20112865</v>
@@ -3315,10 +3357,10 @@
         <v>4</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G77" s="5">
         <v>0</v>
@@ -3326,12 +3368,12 @@
       <c r="H77" s="8"/>
       <c r="I77" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="174.75">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C78" s="5">
         <v>20113803</v>
@@ -3343,7 +3385,7 @@
         <v>8</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G78" s="5">
         <v>0</v>
@@ -3351,12 +3393,12 @@
       <c r="H78" s="8"/>
       <c r="I78" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="201">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C79" s="5">
         <v>20114153</v>
@@ -3365,10 +3407,10 @@
         <v>4</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G79" s="5">
         <v>0</v>
@@ -3376,12 +3418,12 @@
       <c r="H79" s="8"/>
       <c r="I79" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="201">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C80" s="5">
         <v>20114208</v>
@@ -3390,10 +3432,10 @@
         <v>4</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G80" s="5">
         <v>0</v>
@@ -3401,12 +3443,12 @@
       <c r="H80" s="8"/>
       <c r="I80" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="227.25">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C81" s="5">
         <v>20114540</v>
@@ -3418,7 +3460,7 @@
         <v>8</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G81" s="5">
         <v>0</v>
@@ -3426,12 +3468,12 @@
       <c r="H81" s="8"/>
       <c r="I81" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="149.25">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C82" s="5">
         <v>20114570</v>
@@ -3440,10 +3482,10 @@
         <v>4</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="G82" s="5">
         <v>0</v>
@@ -3451,12 +3493,12 @@
       <c r="H82" s="8"/>
       <c r="I82" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="149.25">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C83" s="5">
         <v>20114810</v>
@@ -3465,10 +3507,10 @@
         <v>4</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G83" s="5">
         <v>0</v>
@@ -3476,12 +3518,12 @@
       <c r="H83" s="8"/>
       <c r="I83" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="201">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C84" s="5">
         <v>20115033</v>
@@ -3490,10 +3532,10 @@
         <v>4</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G84" s="5">
         <v>0</v>
@@ -3501,12 +3543,12 @@
       <c r="H84" s="8"/>
       <c r="I84" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="149.25">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C85" s="5">
         <v>20115278</v>
@@ -3515,10 +3557,10 @@
         <v>4</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G85" s="5">
         <v>0</v>
@@ -3526,12 +3568,12 @@
       <c r="H85" s="8"/>
       <c r="I85" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="201">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C86" s="5">
         <v>20115483</v>
@@ -3540,10 +3582,10 @@
         <v>4</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G86" s="5">
         <v>0</v>
@@ -3551,12 +3593,12 @@
       <c r="H86" s="8"/>
       <c r="I86" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="227.25">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C87" s="5">
         <v>20116998</v>
@@ -3568,7 +3610,7 @@
         <v>8</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G87" s="5">
         <v>0</v>
@@ -3576,12 +3618,12 @@
       <c r="H87" s="8"/>
       <c r="I87" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="227.25">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C88" s="5">
         <v>20117319</v>
@@ -3593,7 +3635,7 @@
         <v>8</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G88" s="5">
         <v>0</v>
@@ -3601,12 +3643,12 @@
       <c r="H88" s="8"/>
       <c r="I88" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="227.25">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C89" s="5">
         <v>20118103</v>
@@ -3618,7 +3660,7 @@
         <v>8</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G89" s="5">
         <v>0</v>
@@ -3626,12 +3668,12 @@
       <c r="H89" s="8"/>
       <c r="I89" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="227.25">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C90" s="5">
         <v>20119075</v>
@@ -3643,7 +3685,7 @@
         <v>8</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G90" s="5">
         <v>0</v>
@@ -3651,12 +3693,12 @@
       <c r="H90" s="8"/>
       <c r="I90" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="188.25">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C91" s="5">
         <v>20119380</v>
@@ -3665,10 +3707,10 @@
         <v>4</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G91" s="5">
         <v>0</v>
@@ -3678,7 +3720,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
@@ -3691,12 +3733,12 @@
       <c r="H92" s="8"/>
       <c r="I92" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="252.75">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C93" s="5">
         <v>19212923</v>
@@ -3705,10 +3747,10 @@
         <v>5</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G93" s="5">
         <v>0</v>
@@ -3716,12 +3758,12 @@
       <c r="H93" s="8"/>
       <c r="I93" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="252.75">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C94" s="5">
         <v>19213036</v>
@@ -3730,10 +3772,10 @@
         <v>5</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G94" s="5">
         <v>0</v>
@@ -3741,12 +3783,12 @@
       <c r="H94" s="7"/>
       <c r="I94" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="252.75">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C95" s="5">
         <v>19213245</v>
@@ -3755,10 +3797,10 @@
         <v>5</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G95" s="5">
         <v>0</v>
@@ -3768,10 +3810,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C96" s="5">
         <v>19213485</v>
@@ -3783,7 +3825,7 @@
         <v>8</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G96" s="5">
         <v>0</v>
@@ -3793,10 +3835,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C97" s="5">
         <v>19213793</v>
@@ -3808,7 +3850,7 @@
         <v>8</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G97" s="5">
         <v>0</v>
@@ -3818,10 +3860,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C98" s="5">
         <v>19214013</v>
@@ -3830,10 +3872,10 @@
         <v>5</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G98" s="5">
         <v>0</v>
@@ -3843,10 +3885,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C99" s="5">
         <v>19214073</v>
@@ -3855,10 +3897,10 @@
         <v>5</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G99" s="5">
         <v>0</v>
@@ -3868,10 +3910,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C100" s="5">
         <v>19214127</v>
@@ -3883,7 +3925,7 @@
         <v>8</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G100" s="5">
         <v>0</v>
@@ -3893,10 +3935,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C101" s="5">
         <v>19214542</v>
@@ -3908,7 +3950,7 @@
         <v>8</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G101" s="5">
         <v>0</v>
@@ -3918,10 +3960,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C102" s="5">
         <v>19214706</v>
@@ -3930,10 +3972,10 @@
         <v>5</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G102" s="5">
         <v>0</v>
@@ -3943,10 +3985,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="1" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C103" s="5">
         <v>19214883</v>
@@ -3955,10 +3997,10 @@
         <v>5</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G103" s="5">
         <v>0</v>
@@ -3968,10 +4010,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C104" s="5">
         <v>19215784</v>
@@ -3983,7 +4025,7 @@
         <v>8</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G104" s="5">
         <v>0</v>
@@ -3993,10 +4035,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C105" s="5">
         <v>19216556</v>
@@ -4005,10 +4047,10 @@
         <v>5</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G105" s="5">
         <v>0</v>
@@ -4018,10 +4060,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C106" s="5">
         <v>19217404</v>
@@ -4030,10 +4072,10 @@
         <v>5</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G106" s="5">
         <v>0</v>
@@ -4043,10 +4085,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="1" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C107" s="5">
         <v>19217902</v>
@@ -4058,7 +4100,7 @@
         <v>8</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G107" s="5">
         <v>0</v>
@@ -4068,10 +4110,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="1" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C108" s="5">
         <v>19218228</v>
@@ -4083,7 +4125,7 @@
         <v>8</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G108" s="5">
         <v>0</v>
@@ -4093,10 +4135,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C109" s="5">
         <v>19218606</v>
@@ -4105,10 +4147,10 @@
         <v>5</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G109" s="5">
         <v>0</v>
@@ -4118,10 +4160,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="1" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C110" s="5">
         <v>19218721</v>
@@ -4133,22 +4175,22 @@
         <v>8</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G110" s="5">
         <v>0</v>
       </c>
       <c r="H110" s="14" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="I110" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C111" s="5">
         <v>19219006</v>
@@ -4160,7 +4202,7 @@
         <v>8</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G111" s="5">
         <v>0</v>
@@ -4170,10 +4212,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="1" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C112" s="5">
         <v>19219681</v>
@@ -4185,19 +4227,19 @@
         <v>8</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G112" s="5">
         <v>0</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="I112" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
@@ -4212,10 +4254,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="1" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C114" s="5">
         <v>19111687</v>
@@ -4224,10 +4266,10 @@
         <v>6</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G114" s="5">
         <v>0</v>
@@ -4237,10 +4279,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="1" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C115" s="5">
         <v>19111824</v>
@@ -4249,10 +4291,10 @@
         <v>6</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G115" s="5">
         <v>0</v>
@@ -4262,10 +4304,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="1" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C116" s="5">
         <v>19113030</v>
@@ -4274,10 +4316,10 @@
         <v>6</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G116" s="5">
         <v>0</v>
@@ -4287,10 +4329,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C117" s="5">
         <v>19113291</v>
@@ -4302,22 +4344,22 @@
         <v>8</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G117" s="5">
         <v>0</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="I117" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="1" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C118" s="5">
         <v>19113317</v>
@@ -4326,10 +4368,10 @@
         <v>6</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G118" s="5">
         <v>0</v>
@@ -4339,10 +4381,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="1" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C119" s="5">
         <v>19113770</v>
@@ -4351,10 +4393,10 @@
         <v>6</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G119" s="5">
         <v>0</v>
@@ -4364,10 +4406,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="1" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C120" s="5">
         <v>19114255</v>
@@ -4379,7 +4421,7 @@
         <v>8</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G120" s="5">
         <v>0</v>
@@ -4389,10 +4431,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="1" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C121" s="5">
         <v>19114476</v>
@@ -4404,7 +4446,7 @@
         <v>8</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G121" s="5">
         <v>0</v>
@@ -4414,10 +4456,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="1" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C122" s="5">
         <v>19115127</v>
@@ -4429,7 +4471,7 @@
         <v>8</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G122" s="5">
         <v>0</v>
@@ -4439,10 +4481,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C123" s="5">
         <v>19116132</v>
@@ -4451,10 +4493,10 @@
         <v>6</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G123" s="5">
         <v>0</v>
@@ -4464,10 +4506,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="1" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C124" s="5">
         <v>19116473</v>
@@ -4476,10 +4518,10 @@
         <v>6</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G124" s="5">
         <v>0</v>
@@ -4489,10 +4531,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="1" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C125" s="5">
         <v>19117415</v>
@@ -4501,10 +4543,10 @@
         <v>6</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G125" s="5">
         <v>0</v>
@@ -4514,10 +4556,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="1" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C126" s="5">
         <v>19118069</v>
@@ -4526,10 +4568,10 @@
         <v>6</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G126" s="5">
         <v>0</v>
@@ -4539,10 +4581,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="1" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C127" s="5">
         <v>19118417</v>
@@ -4554,7 +4596,7 @@
         <v>8</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G127" s="5">
         <v>0</v>
@@ -4564,10 +4606,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C128" s="5">
         <v>19119747</v>
@@ -4576,10 +4618,10 @@
         <v>6</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G128" s="5">
         <v>0</v>
@@ -4589,10 +4631,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="1" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C129" s="5">
         <v>19119959</v>
@@ -4601,10 +4643,10 @@
         <v>6</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G129" s="5">
         <v>0</v>
@@ -4614,7 +4656,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
@@ -4629,10 +4671,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="1" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C131" s="5">
         <v>18212204</v>
@@ -4641,10 +4683,10 @@
         <v>7</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G131" s="5">
         <v>0</v>
@@ -4654,10 +4696,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="1" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C132" s="5">
         <v>18212231</v>
@@ -4666,10 +4708,10 @@
         <v>7</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G132" s="5">
         <v>0</v>
@@ -4679,10 +4721,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="1" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C133" s="5">
         <v>18212566</v>
@@ -4691,10 +4733,10 @@
         <v>7</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G133" s="5">
         <v>0</v>
@@ -4704,10 +4746,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="1" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C134" s="5">
         <v>18212683</v>
@@ -4716,10 +4758,10 @@
         <v>7</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G134" s="5">
         <v>0</v>
@@ -4729,10 +4771,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="1" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C135" s="5">
         <v>18212751</v>
@@ -4744,7 +4786,7 @@
         <v>8</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="G135" s="5">
         <v>0</v>
@@ -4754,10 +4796,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="1" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C136" s="5">
         <v>18213002</v>
@@ -4766,10 +4808,10 @@
         <v>7</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G136" s="5">
         <v>0</v>
@@ -4779,10 +4821,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="1" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C137" s="5">
         <v>18213102</v>
@@ -4791,10 +4833,10 @@
         <v>7</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G137" s="5">
         <v>0</v>
@@ -4804,10 +4846,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="1" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C138" s="5">
         <v>18214373</v>
@@ -4816,10 +4858,10 @@
         <v>7</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G138" s="5">
         <v>0</v>
@@ -4829,10 +4871,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="1" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C139" s="5">
         <v>18216423</v>
@@ -4844,7 +4886,7 @@
         <v>8</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="G139" s="5">
         <v>0</v>
@@ -4854,10 +4896,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="1" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C140" s="5">
         <v>18216618</v>
@@ -4866,10 +4908,10 @@
         <v>7</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G140" s="5">
         <v>0</v>
@@ -4879,10 +4921,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="1" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C141" s="5">
         <v>18217982</v>
@@ -4894,7 +4936,7 @@
         <v>8</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="G141" s="5">
         <v>0</v>
@@ -4904,10 +4946,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="1" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C142" s="5">
         <v>18218604</v>
@@ -4916,10 +4958,10 @@
         <v>7</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G142" s="5">
         <v>0</v>
@@ -4929,10 +4971,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="1" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C143" s="5">
         <v>18219562</v>
@@ -4941,10 +4983,10 @@
         <v>7</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G143" s="5">
         <v>0</v>
@@ -4954,7 +4996,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
@@ -4969,10 +5011,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="1" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C145" s="5">
         <v>18111329</v>
@@ -4981,10 +5023,10 @@
         <v>8</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G145" s="5">
         <v>0</v>
@@ -4994,10 +5036,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="1" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C146" s="5">
         <v>18112108</v>
@@ -5006,10 +5048,10 @@
         <v>8</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="G146" s="5">
         <v>0</v>
@@ -5019,10 +5061,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="1" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C147" s="5">
         <v>18112886</v>
@@ -5031,10 +5073,10 @@
         <v>8</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="G147" s="5">
         <v>0</v>
@@ -5044,10 +5086,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="1" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C148" s="5">
         <v>18113428</v>
@@ -5056,10 +5098,10 @@
         <v>8</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G148" s="5">
         <v>0</v>
@@ -5069,10 +5111,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="1" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C149" s="5">
         <v>18113488</v>
@@ -5081,10 +5123,10 @@
         <v>8</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G149" s="5">
         <v>0</v>
@@ -5094,10 +5136,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="1" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C150" s="5">
         <v>18113869</v>
@@ -5106,10 +5148,10 @@
         <v>8</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G150" s="5">
         <v>0</v>
@@ -5119,10 +5161,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="1" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C151" s="5">
         <v>18114891</v>
@@ -5134,7 +5176,7 @@
         <v>8</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="G151" s="5">
         <v>0</v>
@@ -5144,10 +5186,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="1" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C152" s="5">
         <v>18116550</v>
@@ -5156,10 +5198,10 @@
         <v>8</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="G152" s="5">
         <v>0</v>
@@ -5169,10 +5211,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="1" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C153" s="5">
         <v>18116870</v>
@@ -5181,10 +5223,10 @@
         <v>8</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G153" s="5">
         <v>0</v>
@@ -5194,10 +5236,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="1" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C154" s="5">
         <v>18118621</v>
@@ -5206,10 +5248,10 @@
         <v>8</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="G154" s="5">
         <v>0</v>
@@ -5219,7 +5261,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>

--- a/dados_dos_alunos.xlsx
+++ b/dados_dos_alunos.xlsx
@@ -542,8 +542,8 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="5" max="5"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="16" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="17" min="8" max="8"/>
+    <col width="1.005" bestFit="1" customWidth="1" style="16" min="7" max="7"/>
+    <col width="74.57642857142856" bestFit="1" customWidth="1" style="17" min="8" max="8"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="18" min="9" max="9"/>
   </cols>
   <sheetData>
@@ -616,7 +616,7 @@
       </c>
       <c r="H2" s="17" t="inlineStr">
         <is>
-          <t>COMP368, COMP404, COMP391</t>
+          <t>COMP389, COMP404, COMP391</t>
         </is>
       </c>
       <c r="I2" s="4" t="n"/>
@@ -992,7 +992,7 @@
       </c>
       <c r="H14" s="17" t="inlineStr">
         <is>
-          <t>COMP368, COMP369, COMP370, COMP389, COMP392, COMP393, COMP394, COMP400, COMP402</t>
+          <t>COMP368, COMP369, COMP370, COMP389, COMP392, COMP393, COMP394, COMP402, COMP401, COMP404, COMP390</t>
         </is>
       </c>
       <c r="I14" s="4" t="n"/>
